--- a/biology/Zoologie/Elephantulus_revoili/Elephantulus_revoili.xlsx
+++ b/biology/Zoologie/Elephantulus_revoili/Elephantulus_revoili.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Galegeeska revoili, la musaraigne-éléphant de Somalie ou rat à trompe de Somalie, est une espèce de rat à trompe (ordre des Macroscelidea) endémique de Somalie et que l'on rencontre dans les forêts d'arbrisseaux et les déserts brûlants.
 </t>
@@ -511,7 +523,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est un désert aride et semi-aride avec des substrats rocheux et des arbustes clairsemés. Dans certaines parties de la Somalie, le musaraigne-éléphant de Somalie et Elephantulus rufescens peuvent être localement sympatriques. On le trouve dans le nord de la Corne de l'Afrique ; on pensait autrefois qu'il était exclusivement endémique à la Somalie, mais une observation en 2020 indique également qu'ils se trouvent à Djibouti et potentiellement en Éthiopie.
 </t>
@@ -542,9 +556,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il était autrefois classé dans le genre Elephantulus, mais une étude de 2020 a révélé qu'il s'agissait du taxon frère du clade contenant les genres Petrodromus et Petrosaltator ; et le genre Galegeeska a été inventé pour cela[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il était autrefois classé dans le genre Elephantulus, mais une étude de 2020 a révélé qu'il s'agissait du taxon frère du clade contenant les genres Petrodromus et Petrosaltator ; et le genre Galegeeska a été inventé pour cela.
 </t>
         </is>
       </c>
@@ -573,9 +589,11 @@
           <t>Disparition et redécouverte</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La musaraigne-éléphant de Somalie faisait partie des 25 espèces « perdues les plus recherchées » qui étaient au centre de l'initiative « Search for Lost Species » de Global Wildlife Conservation[2]. Le 18 août 2020, 50 ans après sa dernière observation et son enregistrement, il a été annoncé qu'une population avait été découverte à Djibouti, la première documentée depuis 1968[3],[4],[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La musaraigne-éléphant de Somalie faisait partie des 25 espèces « perdues les plus recherchées » qui étaient au centre de l'initiative « Search for Lost Species » de Global Wildlife Conservation. Le 18 août 2020, 50 ans après sa dernière observation et son enregistrement, il a été annoncé qu'une population avait été découverte à Djibouti, la première documentée depuis 1968.
 </t>
         </is>
       </c>
